--- a/specific-tasks/Analysis/Analysis.xlsx
+++ b/specific-tasks/Analysis/Analysis.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\repos\cookiecutter-generic-project\specific-tasks\Analysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD87884-6C32-4B3F-8E46-770FE0D024C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Analysis" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +336,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{55672A42-504E-4140-9F9A-BA5194545DBD}">
+          <x14:formula1>
+            <xm:f>#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>